--- a/tools/excel/nist/mapping-nist-csf-2.0-to-iso27001-2022_new.xlsx
+++ b/tools/excel/nist/mapping-nist-csf-2.0-to-iso27001-2022_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\nist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB29C8-B2C5-44CC-9BB9-FB7D860E1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F6AC76-3CBE-AD44-8642-8FCD81B4916B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="1404" windowWidth="20076" windowHeight="11556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1400" windowWidth="27240" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="1219">
   <si>
     <t>type</t>
   </si>
@@ -3680,6 +3680,9 @@
   </si>
   <si>
     <t>urn:intuitem:risk:req_mapping_set:nist-csf-2.0-to-iso27001-2022</t>
+  </si>
+  <si>
+    <t>NIST</t>
   </si>
 </sst>
 </file>
@@ -4021,11 +4024,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4081,23 +4090,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4122,13 +4131,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="194" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4152,7 +4165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4168,7 +4181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4176,7 +4189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4184,7 +4197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4192,7 +4205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4211,9 +4224,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4230,7 +4243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -4241,7 +4254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4252,7 +4265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4263,7 +4276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4274,7 +4287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4285,7 +4298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -4307,7 +4320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +4331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4340,7 +4353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -4362,7 +4375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4373,7 +4386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -4384,7 +4397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4395,7 +4408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -4417,7 +4430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4428,7 +4441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4439,7 +4452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -4472,7 +4485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -4483,7 +4496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4494,7 +4507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4505,7 +4518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4516,7 +4529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -4538,7 +4551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4549,7 +4562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -4560,7 +4573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -4571,7 +4584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4593,7 +4606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4604,7 +4617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -4615,7 +4628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4626,7 +4639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -4637,7 +4650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4648,7 +4661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4659,7 +4672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -4670,7 +4683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -4681,7 +4694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -4703,7 +4716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -4714,7 +4727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -4725,7 +4738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -4736,7 +4749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -4747,7 +4760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -4758,7 +4771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -4769,7 +4782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -4780,7 +4793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -4791,7 +4804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4802,7 +4815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -4813,7 +4826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4824,7 +4837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -4846,7 +4859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -4868,7 +4881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -4879,7 +4892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -4890,7 +4903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -4901,7 +4914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -4912,7 +4925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4923,7 +4936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4934,7 +4947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4945,7 +4958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -4956,7 +4969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4967,7 +4980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4978,7 +4991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4989,7 +5002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -5000,7 +5013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -5011,7 +5024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5022,7 +5035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -5033,7 +5046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -5044,7 +5057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -5055,7 +5068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -5066,7 +5079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5077,7 +5090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -5088,7 +5101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -5099,7 +5112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -5110,7 +5123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -5121,7 +5134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -5132,7 +5145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5143,7 +5156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5154,7 +5167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -5165,7 +5178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -5176,7 +5189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -5187,7 +5200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -5198,7 +5211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -5209,7 +5222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -5220,7 +5233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -5231,7 +5244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5242,7 +5255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5253,7 +5266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5264,7 +5277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -5275,7 +5288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -5286,7 +5299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -5297,7 +5310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -5308,7 +5321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -5319,7 +5332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -5330,7 +5343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -5341,7 +5354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -5352,7 +5365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -5363,7 +5376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -5374,7 +5387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -5385,7 +5398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -5396,7 +5409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>97</v>
       </c>
@@ -5407,7 +5420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -5418,7 +5431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>97</v>
       </c>
@@ -5429,7 +5442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -5440,7 +5453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -5451,7 +5464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -5462,7 +5475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -5473,7 +5486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -5484,7 +5497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -5495,7 +5508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -5506,7 +5519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -5517,7 +5530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>101</v>
       </c>
@@ -5528,7 +5541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>102</v>
       </c>
@@ -5539,7 +5552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>102</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>102</v>
       </c>
@@ -5561,7 +5574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -5572,7 +5585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -5594,7 +5607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>108</v>
       </c>
@@ -5605,7 +5618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -5616,7 +5629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -5627,7 +5640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -5638,7 +5651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -5649,7 +5662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -5660,7 +5673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -5671,7 +5684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -5682,7 +5695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -5693,7 +5706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -5704,7 +5717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -5715,7 +5728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -5726,7 +5739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>117</v>
       </c>
@@ -5737,7 +5750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>119</v>
       </c>
@@ -5748,7 +5761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>119</v>
       </c>
@@ -5759,7 +5772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>119</v>
       </c>
@@ -5770,7 +5783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>122</v>
       </c>
@@ -5781,7 +5794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>122</v>
       </c>
@@ -5792,7 +5805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>122</v>
       </c>
@@ -5803,7 +5816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>122</v>
       </c>
@@ -5814,7 +5827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
@@ -5825,7 +5838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>122</v>
       </c>
@@ -5836,7 +5849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -5847,7 +5860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -5858,7 +5871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>124</v>
       </c>
@@ -5880,7 +5893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>124</v>
       </c>
@@ -5891,7 +5904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>124</v>
       </c>
@@ -5902,7 +5915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>124</v>
       </c>
@@ -5913,7 +5926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>125</v>
       </c>
@@ -5924,7 +5937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>125</v>
       </c>
@@ -5935,7 +5948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>126</v>
       </c>
@@ -5946,7 +5959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -5957,7 +5970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>128</v>
       </c>
@@ -5968,7 +5981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>129</v>
       </c>
@@ -5979,7 +5992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>129</v>
       </c>
@@ -5990,7 +6003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>129</v>
       </c>
@@ -6001,7 +6014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>130</v>
       </c>
@@ -6012,7 +6025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>130</v>
       </c>
@@ -6023,7 +6036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>130</v>
       </c>
@@ -6034,7 +6047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>131</v>
       </c>
@@ -6045,7 +6058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>131</v>
       </c>
@@ -6056,7 +6069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>131</v>
       </c>
@@ -6067,7 +6080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>131</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>131</v>
       </c>
@@ -6089,7 +6102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>137</v>
       </c>
@@ -6100,7 +6113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>137</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>137</v>
       </c>
@@ -6122,7 +6135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>137</v>
       </c>
@@ -6133,7 +6146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -6144,7 +6157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>137</v>
       </c>
@@ -6155,7 +6168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>137</v>
       </c>
@@ -6166,7 +6179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>137</v>
       </c>
@@ -6177,7 +6190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>137</v>
       </c>
@@ -6188,7 +6201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>141</v>
       </c>
@@ -6199,7 +6212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>141</v>
       </c>
@@ -6210,7 +6223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>143</v>
       </c>
@@ -6221,7 +6234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>143</v>
       </c>
@@ -6232,7 +6245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>143</v>
       </c>
@@ -6243,7 +6256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>143</v>
       </c>
@@ -6254,7 +6267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>145</v>
       </c>
@@ -6265,7 +6278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>145</v>
       </c>
@@ -6276,7 +6289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -6287,7 +6300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>145</v>
       </c>
@@ -6298,7 +6311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>150</v>
       </c>
@@ -6309,7 +6322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>150</v>
       </c>
@@ -6320,7 +6333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>150</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>152</v>
       </c>
@@ -6342,7 +6355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>152</v>
       </c>
@@ -6353,7 +6366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -6364,7 +6377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>152</v>
       </c>
@@ -6386,7 +6399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>155</v>
       </c>
@@ -6397,7 +6410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -6408,7 +6421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>156</v>
       </c>
@@ -6419,7 +6432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>156</v>
       </c>
@@ -6430,7 +6443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>156</v>
       </c>
@@ -6441,7 +6454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>156</v>
       </c>
@@ -6452,7 +6465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>156</v>
       </c>
@@ -6463,7 +6476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>156</v>
       </c>
@@ -6474,7 +6487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>156</v>
       </c>
@@ -6485,7 +6498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>156</v>
       </c>
@@ -6496,7 +6509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>156</v>
       </c>
@@ -6507,7 +6520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>156</v>
       </c>
@@ -6518,7 +6531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>158</v>
       </c>
@@ -6529,7 +6542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>158</v>
       </c>
@@ -6540,7 +6553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>158</v>
       </c>
@@ -6551,7 +6564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>158</v>
       </c>
@@ -6562,7 +6575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -6573,7 +6586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>164</v>
       </c>
@@ -6584,7 +6597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>164</v>
       </c>
@@ -6595,7 +6608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>165</v>
       </c>
@@ -6606,7 +6619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>165</v>
       </c>
@@ -6617,7 +6630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -6628,7 +6641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>166</v>
       </c>
@@ -6639,7 +6652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>166</v>
       </c>
@@ -6650,7 +6663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>166</v>
       </c>
@@ -6661,7 +6674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>166</v>
       </c>
@@ -6672,7 +6685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -6683,7 +6696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>166</v>
       </c>
@@ -6694,7 +6707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>166</v>
       </c>
@@ -6705,7 +6718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>166</v>
       </c>
@@ -6716,7 +6729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>166</v>
       </c>
@@ -6727,7 +6740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>166</v>
       </c>
@@ -6738,7 +6751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>166</v>
       </c>
@@ -6749,7 +6762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>166</v>
       </c>
@@ -6760,7 +6773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>166</v>
       </c>
@@ -6771,7 +6784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>166</v>
       </c>
@@ -6782,7 +6795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>166</v>
       </c>
@@ -6793,7 +6806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>166</v>
       </c>
@@ -6804,7 +6817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>166</v>
       </c>
@@ -6815,7 +6828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -6826,7 +6839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>166</v>
       </c>
@@ -6837,7 +6850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>166</v>
       </c>
@@ -6848,7 +6861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>166</v>
       </c>
@@ -6859,7 +6872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>166</v>
       </c>
@@ -6870,7 +6883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>174</v>
       </c>
@@ -6881,7 +6894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>174</v>
       </c>
@@ -6892,7 +6905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>174</v>
       </c>
@@ -6903,7 +6916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>174</v>
       </c>
@@ -6914,7 +6927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>174</v>
       </c>
@@ -6925,7 +6938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -6936,7 +6949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>174</v>
       </c>
@@ -6947,7 +6960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>174</v>
       </c>
@@ -6958,7 +6971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>174</v>
       </c>
@@ -6969,7 +6982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>174</v>
       </c>
@@ -6980,7 +6993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>174</v>
       </c>
@@ -6991,7 +7004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>174</v>
       </c>
@@ -7002,7 +7015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>174</v>
       </c>
@@ -7013,7 +7026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>174</v>
       </c>
@@ -7024,7 +7037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>174</v>
       </c>
@@ -7035,7 +7048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>174</v>
       </c>
@@ -7046,7 +7059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>174</v>
       </c>
@@ -7057,7 +7070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>175</v>
       </c>
@@ -7068,7 +7081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>175</v>
       </c>
@@ -7079,7 +7092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>175</v>
       </c>
@@ -7090,7 +7103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>175</v>
       </c>
@@ -7101,7 +7114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>175</v>
       </c>
@@ -7112,7 +7125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>175</v>
       </c>
@@ -7123,7 +7136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>175</v>
       </c>
@@ -7134,7 +7147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>175</v>
       </c>
@@ -7145,7 +7158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>175</v>
       </c>
@@ -7156,7 +7169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>175</v>
       </c>
@@ -7167,7 +7180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>175</v>
       </c>
@@ -7178,7 +7191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>175</v>
       </c>
@@ -7189,7 +7202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>175</v>
       </c>
@@ -7200,7 +7213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>175</v>
       </c>
@@ -7211,7 +7224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>175</v>
       </c>
@@ -7222,7 +7235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>175</v>
       </c>
@@ -7233,7 +7246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>176</v>
       </c>
@@ -7244,7 +7257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>178</v>
       </c>
@@ -7255,7 +7268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>178</v>
       </c>
@@ -7266,7 +7279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>178</v>
       </c>
@@ -7277,7 +7290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>178</v>
       </c>
@@ -7288,7 +7301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>180</v>
       </c>
@@ -7299,7 +7312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>181</v>
       </c>
@@ -7310,7 +7323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>182</v>
       </c>
@@ -7321,7 +7334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>182</v>
       </c>
@@ -7332,7 +7345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>184</v>
       </c>
@@ -7343,7 +7356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>185</v>
       </c>
@@ -7354,7 +7367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>185</v>
       </c>
@@ -7365,7 +7378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>188</v>
       </c>
@@ -7376,7 +7389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>188</v>
       </c>
@@ -7387,7 +7400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>188</v>
       </c>
@@ -7398,7 +7411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>189</v>
       </c>
@@ -7409,7 +7422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>191</v>
       </c>
@@ -7420,7 +7433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>191</v>
       </c>
@@ -7431,7 +7444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>191</v>
       </c>
@@ -7442,7 +7455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>191</v>
       </c>
@@ -7453,7 +7466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>194</v>
       </c>
@@ -7464,7 +7477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>196</v>
       </c>
@@ -7475,7 +7488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>197</v>
       </c>
@@ -7486,7 +7499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>198</v>
       </c>
@@ -7497,7 +7510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>198</v>
       </c>
@@ -7508,7 +7521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>198</v>
       </c>
@@ -7519,7 +7532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>199</v>
       </c>
@@ -7530,7 +7543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>199</v>
       </c>
@@ -7541,7 +7554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>200</v>
       </c>
@@ -7552,7 +7565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>201</v>
       </c>
@@ -7563,7 +7576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>201</v>
       </c>
@@ -7574,7 +7587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>203</v>
       </c>
@@ -7585,7 +7598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>203</v>
       </c>
@@ -7596,7 +7609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>204</v>
       </c>
@@ -7607,7 +7620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>205</v>
       </c>
@@ -7618,7 +7631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>206</v>
       </c>
@@ -7629,7 +7642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>207</v>
       </c>
@@ -7640,7 +7653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>207</v>
       </c>
@@ -7651,7 +7664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>208</v>
       </c>
@@ -7662,7 +7675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>208</v>
       </c>
@@ -7673,7 +7686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>208</v>
       </c>
@@ -7684,7 +7697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>210</v>
       </c>
@@ -7695,7 +7708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>210</v>
       </c>
@@ -7706,7 +7719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>210</v>
       </c>
@@ -7717,7 +7730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>210</v>
       </c>
@@ -7728,7 +7741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>210</v>
       </c>
@@ -7739,7 +7752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>211</v>
       </c>
@@ -7750,7 +7763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>212</v>
       </c>
@@ -7761,7 +7774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>213</v>
       </c>
@@ -7772,7 +7785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>214</v>
       </c>
@@ -7783,7 +7796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>214</v>
       </c>
@@ -7794,7 +7807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>215</v>
       </c>
@@ -7805,7 +7818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>216</v>
       </c>
@@ -7816,7 +7829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>217</v>
       </c>
@@ -7827,7 +7840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>218</v>
       </c>
@@ -7838,7 +7851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>218</v>
       </c>
@@ -7849,7 +7862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>220</v>
       </c>
@@ -7860,7 +7873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>220</v>
       </c>
@@ -7871,7 +7884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>221</v>
       </c>
@@ -7882,7 +7895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>222</v>
       </c>
@@ -7893,7 +7906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>223</v>
       </c>
@@ -7904,7 +7917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>224</v>
       </c>
@@ -7915,7 +7928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>225</v>
       </c>
@@ -7926,7 +7939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>226</v>
       </c>
@@ -7937,7 +7950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>227</v>
       </c>
@@ -7948,7 +7961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>228</v>
       </c>
@@ -7959,7 +7972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>228</v>
       </c>
@@ -7970,7 +7983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>229</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>229</v>
       </c>
@@ -7992,7 +8005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>230</v>
       </c>
@@ -8014,9 +8027,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -8024,7 +8037,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -8032,7 +8045,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -8040,32 +8053,32 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -8073,22 +8086,22 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -8107,9 +8120,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>244</v>
       </c>
@@ -8129,7 +8142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="b">
         <v>0</v>
       </c>
@@ -8146,7 +8159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="b">
         <v>0</v>
       </c>
@@ -8163,7 +8176,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -8180,7 +8193,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8197,7 +8210,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -8214,7 +8227,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -8231,7 +8244,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -8248,7 +8261,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -8265,7 +8278,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -8282,7 +8295,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -8299,7 +8312,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -8316,7 +8329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -8333,7 +8346,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -8350,7 +8363,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -8367,7 +8380,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -8384,7 +8397,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="b">
         <v>0</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -8418,7 +8431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -8435,7 +8448,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -8452,7 +8465,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -8469,7 +8482,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="b">
         <v>0</v>
       </c>
@@ -8486,7 +8499,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -8503,7 +8516,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8520,7 +8533,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="b">
         <v>0</v>
       </c>
@@ -8537,7 +8550,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -8554,7 +8567,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -8588,7 +8601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="b">
         <v>0</v>
       </c>
@@ -8605,7 +8618,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -8622,7 +8635,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -8639,7 +8652,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -8656,7 +8669,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -8673,7 +8686,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -8690,7 +8703,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -8707,7 +8720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -8724,7 +8737,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -8741,7 +8754,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -8758,7 +8771,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -8775,7 +8788,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="b">
         <v>0</v>
       </c>
@@ -8792,7 +8805,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="b">
         <v>0</v>
       </c>
@@ -8809,7 +8822,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -8826,7 +8839,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -8843,7 +8856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -8860,7 +8873,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -8894,7 +8907,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>111</v>
       </c>
@@ -8911,7 +8924,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -8928,7 +8941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" t="b">
         <v>0</v>
       </c>
@@ -8945,7 +8958,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -8962,7 +8975,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -8979,7 +8992,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -8996,7 +9009,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -9013,7 +9026,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -9030,7 +9043,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -9047,7 +9060,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -9064,7 +9077,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -9081,7 +9094,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -9098,7 +9111,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -9115,7 +9128,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="b">
         <v>0</v>
       </c>
@@ -9132,7 +9145,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -9149,7 +9162,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -9166,7 +9179,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -9183,7 +9196,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -9200,7 +9213,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" t="b">
         <v>0</v>
       </c>
@@ -9217,7 +9230,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66" t="b">
         <v>0</v>
       </c>
@@ -9234,7 +9247,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -9251,7 +9264,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -9268,7 +9281,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -9285,7 +9298,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -9302,7 +9315,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -9319,7 +9332,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -9336,7 +9349,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" t="b">
         <v>0</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -9370,7 +9383,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -9387,7 +9400,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="b">
         <v>0</v>
       </c>
@@ -9404,7 +9417,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -9421,7 +9434,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -9438,7 +9451,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -9455,7 +9468,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -9472,7 +9485,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="b">
         <v>0</v>
       </c>
@@ -9489,7 +9502,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -9506,7 +9519,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -9523,7 +9536,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -9540,7 +9553,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -9557,7 +9570,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -9574,7 +9587,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>185</v>
       </c>
@@ -9591,7 +9604,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" t="b">
         <v>0</v>
       </c>
@@ -9608,7 +9621,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -9625,7 +9638,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -9642,7 +9655,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -9659,7 +9672,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -9676,7 +9689,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="b">
         <v>0</v>
       </c>
@@ -9693,7 +9706,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94" t="b">
         <v>0</v>
       </c>
@@ -9710,7 +9723,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -9727,7 +9740,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -9744,7 +9757,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -9778,7 +9791,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -9795,7 +9808,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100" t="b">
         <v>0</v>
       </c>
@@ -9812,7 +9825,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -9829,7 +9842,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -9846,7 +9859,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -9863,7 +9876,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -9880,7 +9893,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -9897,7 +9910,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -9914,7 +9927,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" t="b">
         <v>0</v>
       </c>
@@ -9931,7 +9944,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" t="b">
         <v>0</v>
       </c>
@@ -9948,7 +9961,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>208</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>210</v>
       </c>
@@ -9982,7 +9995,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>211</v>
       </c>
@@ -9999,7 +10012,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>212</v>
       </c>
@@ -10016,7 +10029,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>213</v>
       </c>
@@ -10033,7 +10046,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B114" t="b">
         <v>0</v>
       </c>
@@ -10050,7 +10063,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>214</v>
       </c>
@@ -10067,7 +10080,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -10084,7 +10097,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>216</v>
       </c>
@@ -10101,7 +10114,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>217</v>
       </c>
@@ -10118,7 +10131,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B119" t="b">
         <v>0</v>
       </c>
@@ -10135,7 +10148,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -10152,7 +10165,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -10169,7 +10182,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B122" t="b">
         <v>0</v>
       </c>
@@ -10186,7 +10199,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>221</v>
       </c>
@@ -10203,7 +10216,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -10220,7 +10233,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B125" t="b">
         <v>0</v>
       </c>
@@ -10237,7 +10250,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B126" t="b">
         <v>0</v>
       </c>
@@ -10254,7 +10267,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -10271,7 +10284,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -10288,7 +10301,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -10305,7 +10318,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -10322,7 +10335,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>227</v>
       </c>
@@ -10339,7 +10352,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>228</v>
       </c>
@@ -10356,7 +10369,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B133" t="b">
         <v>0</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>229</v>
       </c>
@@ -10390,7 +10403,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>230</v>
       </c>
@@ -10418,9 +10431,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>244</v>
       </c>
@@ -10440,7 +10453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="b">
         <v>0</v>
       </c>
@@ -10454,7 +10467,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="b">
         <v>0</v>
       </c>
@@ -10468,7 +10481,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -10488,7 +10501,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -10508,7 +10521,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>688</v>
       </c>
@@ -10528,7 +10541,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10548,7 +10561,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -10562,7 +10575,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>698</v>
       </c>
@@ -10582,7 +10595,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10602,7 +10615,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -10622,7 +10635,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -10636,7 +10649,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -10650,7 +10663,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -10670,7 +10683,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -10690,7 +10703,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -10710,7 +10723,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>723</v>
       </c>
@@ -10730,7 +10743,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>727</v>
       </c>
@@ -10750,7 +10763,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="b">
         <v>0</v>
       </c>
@@ -10764,7 +10777,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -10784,7 +10797,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -10804,7 +10817,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -10824,7 +10837,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -10844,7 +10857,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="b">
         <v>0</v>
       </c>
@@ -10858,7 +10871,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>749</v>
       </c>
@@ -10878,7 +10891,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>752</v>
       </c>
@@ -10898,7 +10911,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>756</v>
       </c>
@@ -10918,7 +10931,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="b">
         <v>0</v>
       </c>
@@ -10932,7 +10945,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -10952,7 +10965,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -10972,7 +10985,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -10992,7 +11005,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="b">
         <v>0</v>
       </c>
@@ -11006,7 +11019,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -11026,7 +11039,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="b">
         <v>0</v>
       </c>
@@ -11040,7 +11053,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -11060,7 +11073,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -11080,7 +11093,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="b">
         <v>0</v>
       </c>
@@ -11094,7 +11107,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -11114,7 +11127,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -11134,7 +11147,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -11154,7 +11167,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="b">
         <v>0</v>
       </c>
@@ -11168,7 +11181,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -11188,7 +11201,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -11208,7 +11221,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="b">
         <v>0</v>
       </c>
@@ -11222,7 +11235,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="b">
         <v>0</v>
       </c>
@@ -11236,7 +11249,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -11256,7 +11269,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -11276,7 +11289,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -11296,7 +11309,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -11316,7 +11329,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>826</v>
       </c>
@@ -11336,7 +11349,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>831</v>
       </c>
@@ -11356,7 +11369,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -11376,7 +11389,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -11396,7 +11409,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -11416,7 +11429,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -11436,7 +11449,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>852</v>
       </c>
@@ -11456,7 +11469,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -11476,7 +11489,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -11496,7 +11509,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -11516,7 +11529,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -11536,7 +11549,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -11556,7 +11569,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -11576,7 +11589,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -11596,7 +11609,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -11616,7 +11629,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -11636,7 +11649,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -11656,7 +11669,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -11676,7 +11689,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>901</v>
       </c>
@@ -11696,7 +11709,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -11716,7 +11729,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -11736,7 +11749,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -11756,7 +11769,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -11776,7 +11789,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>209</v>
       </c>
@@ -11796,7 +11809,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -11816,7 +11829,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>930</v>
       </c>
@@ -11836,7 +11849,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -11856,7 +11869,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>939</v>
       </c>
@@ -11876,7 +11889,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>944</v>
       </c>
@@ -11896,7 +11909,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>949</v>
       </c>
@@ -11916,7 +11929,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -11936,7 +11949,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>958</v>
       </c>
@@ -11956,7 +11969,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>963</v>
       </c>
@@ -11976,7 +11989,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" t="b">
         <v>0</v>
       </c>
@@ -11990,7 +12003,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -12010,7 +12023,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -12030,7 +12043,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -12050,7 +12063,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -12070,7 +12083,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -12090,7 +12103,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -12110,7 +12123,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -12130,7 +12143,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -12150,7 +12163,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="b">
         <v>0</v>
       </c>
@@ -12164,7 +12177,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>159</v>
       </c>
@@ -12184,7 +12197,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -12204,7 +12217,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -12224,7 +12237,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>162</v>
       </c>
@@ -12244,7 +12257,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -12264,7 +12277,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1026</v>
       </c>
@@ -12284,7 +12297,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>168</v>
       </c>
@@ -12304,7 +12317,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1035</v>
       </c>
@@ -12324,7 +12337,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1040</v>
       </c>
@@ -12344,7 +12357,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -12364,7 +12377,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1049</v>
       </c>
@@ -12384,7 +12397,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>163</v>
       </c>
@@ -12404,7 +12417,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -12424,7 +12437,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -12444,7 +12457,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" t="b">
         <v>0</v>
       </c>
@@ -12458,7 +12471,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1069</v>
       </c>
@@ -12478,7 +12491,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -12498,7 +12511,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -12518,7 +12531,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>169</v>
       </c>
@@ -12538,7 +12551,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -12558,7 +12571,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -12578,7 +12591,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>170</v>
       </c>
@@ -12598,7 +12611,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -12618,7 +12631,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>179</v>
       </c>
@@ -12638,7 +12651,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1106</v>
       </c>
@@ -12658,7 +12671,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1111</v>
       </c>
@@ -12678,7 +12691,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1116</v>
       </c>
@@ -12698,7 +12711,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>177</v>
       </c>
@@ -12718,7 +12731,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>193</v>
       </c>
@@ -12738,7 +12751,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -12758,7 +12771,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -12778,7 +12791,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>171</v>
       </c>
@@ -12798,7 +12811,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -12818,7 +12831,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -12838,7 +12851,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>104</v>
       </c>
@@ -12858,7 +12871,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>105</v>
       </c>
@@ -12878,7 +12891,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -12898,7 +12911,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1161</v>
       </c>
@@ -12918,7 +12931,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1166</v>
       </c>
@@ -12938,7 +12951,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>186</v>
       </c>
@@ -12958,7 +12971,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -12978,7 +12991,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1179</v>
       </c>
@@ -12998,7 +13011,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -13018,7 +13031,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1188</v>
       </c>
@@ -13038,7 +13051,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1193</v>
       </c>
@@ -13058,7 +13071,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1198</v>
       </c>
@@ -13078,7 +13091,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -13098,7 +13111,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1207</v>
       </c>
@@ -13118,7 +13131,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1212</v>
       </c>
